--- a/src/test/resources/testRegion.xlsx
+++ b/src/test/resources/testRegion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="3690"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="4125"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Constitutency</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Polling Place</t>
   </si>
   <si>
-    <t>Asturas</t>
-  </si>
-  <si>
     <t>Madrid</t>
   </si>
   <si>
@@ -46,13 +43,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>EE</t>
+    <t>Asturias</t>
   </si>
 </sst>
 </file>
@@ -394,7 +385,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C5" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,35 +407,35 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
